--- a/reading.xlsx
+++ b/reading.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>How to speak, how to listen</t>
+  </si>
+  <si>
+    <t>Getting things done</t>
+  </si>
+  <si>
+    <t>David Allen</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>productivity</t>
+  </si>
+  <si>
+    <t>How to write a lot</t>
+  </si>
+  <si>
+    <t>Paul Silvia</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scientist's Guide to Writing: How to Write More Easily and Effectively throughout Your Scientific Career </t>
+  </si>
+  <si>
+    <t>STEPHEN B. HEARD</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -378,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,6 +474,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Title</t>
   </si>
@@ -91,6 +91,36 @@
   </si>
   <si>
     <t>Oct</t>
+  </si>
+  <si>
+    <t>American Gods</t>
+  </si>
+  <si>
+    <t>Neil Gaimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct </t>
+  </si>
+  <si>
+    <t>sci-fi</t>
+  </si>
+  <si>
+    <t>Graveyard Book</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>Braiding Sweetgrass</t>
+  </si>
+  <si>
+    <t>Robin Kimmerer</t>
+  </si>
+  <si>
+    <t>biography</t>
   </si>
 </sst>
 </file>
@@ -408,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,6 +555,57 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
